--- a/Leather Company - Jan 2024 - Leather Jackets.xlsx
+++ b/Leather Company - Jan 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4376,60 +4376,56 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>1141</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="D136" s="1" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="B136" s="1" t="inlineStr"/>
+      <c r="C136" s="1" t="inlineStr"/>
+      <c r="D136" s="1" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F136" t="n">
-        <v>516</v>
+        <v>29871</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>9892</v>
       </c>
       <c r="I136" t="n">
-        <v>516</v>
+        <v>19978</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Mens &gt; Leather Jackets</t>
+        </is>
+      </c>
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D137" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4438,31 +4434,23 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <t>AWL-281</t>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>757</v>
+        <v>447</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4471,31 +4459,23 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>757</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>AWL-672</t>
-        </is>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
       <c r="D139" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4504,27 +4484,23 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>236</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="n"/>
-      <c r="C140" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
+      <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4533,31 +4509,27 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>278</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>G 2131</t>
-        </is>
-      </c>
+      <c r="B141" s="1" t="n"/>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4566,27 +4538,23 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>531</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="n"/>
-      <c r="C142" s="1" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+      <c r="C142" s="1" t="n"/>
       <c r="D142" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4595,56 +4563,48 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>239</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
       <c r="B143" s="1" t="n"/>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C143" s="1" t="n"/>
       <c r="D143" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>659</v>
+        <v>199</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I143" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
       <c r="B144" s="1" t="n"/>
-      <c r="C144" s="1" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
+      <c r="C144" s="1" t="n"/>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F144" t="n">
-        <v>219</v>
+        <v>546</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4653,28 +4613,24 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>219</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
-      <c r="B145" s="1" t="inlineStr">
-        <is>
-          <t>IT GILLET</t>
-        </is>
-      </c>
+      <c r="B145" s="1" t="n"/>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>298</v>
@@ -4691,26 +4647,18 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
-      <c r="B146" s="1" t="inlineStr">
-        <is>
-          <t>KB 270</t>
-        </is>
-      </c>
-      <c r="C146" s="1" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
+      <c r="B146" s="1" t="n"/>
+      <c r="C146" s="1" t="n"/>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>3580</v>
+        <v>447</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4719,64 +4667,48 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>3580</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="inlineStr">
-        <is>
-          <t>KB 32 HOODED</t>
-        </is>
-      </c>
-      <c r="C147" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
       <c r="D147" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1250</v>
+        <v>298</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I147" t="n">
-        <v>1250</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="inlineStr">
-        <is>
-          <t>KB-42</t>
-        </is>
-      </c>
-      <c r="C148" s="1" t="inlineStr">
-        <is>
-          <t>Topo</t>
-        </is>
-      </c>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
       <c r="D148" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>589</v>
+        <v>149</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4785,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>589</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
@@ -4793,85 +4725,77 @@
       <c r="B149" s="1" t="n"/>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>Whisky</t>
-        </is>
-      </c>
-      <c r="D149" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="D149" s="1" t="inlineStr"/>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F149" t="n">
-        <v>598</v>
+        <v>3556</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="I149" t="n">
-        <v>598</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>L-LYCRA SHIRT</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D150" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I150" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="inlineStr">
-        <is>
-          <t>RUTH</t>
-        </is>
-      </c>
+      <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="D151" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>822</v>
+        <v>179</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4880,31 +4804,23 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>822</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="inlineStr">
-        <is>
-          <t>STYLE F</t>
-        </is>
-      </c>
-      <c r="C152" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="n"/>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4913,31 +4829,23 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>278</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>awl-1201</t>
-        </is>
-      </c>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="n"/>
       <c r="D153" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4946,31 +4854,23 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>328</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
-      <c r="B154" s="1" t="inlineStr">
-        <is>
-          <t>awl-79</t>
-        </is>
-      </c>
-      <c r="C154" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
       <c r="D154" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4979,31 +4879,27 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="inlineStr">
-        <is>
-          <t>bikex</t>
-        </is>
-      </c>
+      <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="D155" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5012,31 +4908,23 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="inlineStr">
-        <is>
-          <t>jessica</t>
-        </is>
-      </c>
+      <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D156" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="D156" s="1" t="inlineStr"/>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F156" t="n">
-        <v>437</v>
+        <v>951</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5045,14 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>437</v>
+        <v>951</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>licra</t>
+          <t>2238</t>
         </is>
       </c>
       <c r="C157" s="1" t="inlineStr">
@@ -5062,14 +4950,14 @@
       </c>
       <c r="D157" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>1194</v>
+        <v>210</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -5078,60 +4966,52 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="inlineStr"/>
-      <c r="C158" s="1" t="inlineStr"/>
-      <c r="D158" s="1" t="inlineStr"/>
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="D158" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
       <c r="E158" t="n">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>29871</v>
+        <v>385</v>
       </c>
       <c r="G158" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>9892</v>
+        <v>175</v>
       </c>
       <c r="I158" t="n">
-        <v>19978</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>Mens &gt; Leather Jackets</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="inlineStr">
-        <is>
-          <t>1895</t>
-        </is>
-      </c>
-      <c r="C159" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
       <c r="D159" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5140,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160">
@@ -5149,14 +5029,14 @@
       <c r="C160" s="1" t="n"/>
       <c r="D160" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>447</v>
+        <v>270</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5165,23 +5045,23 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>447</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
       <c r="B161" s="1" t="n"/>
-      <c r="C161" s="1" t="n"/>
-      <c r="D161" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D161" s="1" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>124</v>
+        <v>1075</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5190,23 +5070,31 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>124</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="n"/>
-      <c r="C162" s="1" t="n"/>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D162" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E162" t="n">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -5215,27 +5103,31 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>149</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="n"/>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
       <c r="C163" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D163" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5244,23 +5136,31 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="n"/>
-      <c r="C164" s="1" t="n"/>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>2483</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
       <c r="D164" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>422</v>
+        <v>179</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5269,32 +5169,40 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>422</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="n"/>
-      <c r="C165" s="1" t="n"/>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
       <c r="D165" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166">
@@ -5303,14 +5211,14 @@
       <c r="C166" s="1" t="n"/>
       <c r="D166" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>546</v>
+        <v>179</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5319,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>546</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167">
@@ -5327,19 +5235,15 @@
       <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>Timber</t>
-        </is>
-      </c>
-      <c r="D167" s="1" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr"/>
       <c r="E167" t="n">
         <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5348,23 +5252,31 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="n"/>
-      <c r="C168" s="1" t="n"/>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D168" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>447</v>
+        <v>90</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -5373,48 +5285,60 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>447</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="n"/>
-      <c r="C169" s="1" t="n"/>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>5704</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D169" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
       <c r="B170" s="1" t="n"/>
-      <c r="C170" s="1" t="n"/>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>Oxblood</t>
+        </is>
+      </c>
       <c r="D170" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5423,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171">
@@ -5436,49 +5360,49 @@
       </c>
       <c r="D171" s="1" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
-        <v>3556</v>
+        <v>509</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>3208</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>5868</t>
         </is>
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D172" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -5486,90 +5410,102 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n"/>
-      <c r="C173" s="1" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>7950 jacket</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr"/>
       <c r="D173" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E173" t="n">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I173" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n"/>
       <c r="B174" s="1" t="n"/>
-      <c r="C174" s="1" t="n"/>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
       <c r="D174" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I174" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n"/>
       <c r="B175" s="1" t="n"/>
-      <c r="C175" s="1" t="n"/>
-      <c r="D175" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D175" s="1" t="inlineStr"/>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
-        <v>159</v>
+        <v>550</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I175" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="n"/>
-      <c r="C176" s="1" t="n"/>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>7950-vest</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
       <c r="D176" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -5593,19 +5529,19 @@
       <c r="B177" s="1" t="n"/>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D177" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5614,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
@@ -5627,10 +5563,10 @@
       </c>
       <c r="D178" s="1" t="inlineStr"/>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
-        <v>951</v>
+        <v>318</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -5639,14 +5575,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>951</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
       <c r="B179" s="1" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>BIKER 110</t>
         </is>
       </c>
       <c r="C179" s="1" t="inlineStr">
@@ -5656,68 +5592,64 @@
       </c>
       <c r="D179" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>6XL</t>
         </is>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I179" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
       <c r="B180" s="1" t="n"/>
-      <c r="C180" s="1" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
+      <c r="C180" s="1" t="n"/>
       <c r="D180" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>7XL</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
       <c r="B181" s="1" t="n"/>
-      <c r="C181" s="1" t="n"/>
-      <c r="D181" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D181" s="1" t="inlineStr"/>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5726,48 +5658,64 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="n"/>
-      <c r="C182" s="1" t="n"/>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>BIKER 220</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D182" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E182" t="n">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I182" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="n"/>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>BR ROCK 2</t>
+        </is>
+      </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D183" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D183" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1075</v>
+        <v>249</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5776,31 +5724,27 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1075</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="inlineStr">
-        <is>
-          <t>2296</t>
-        </is>
-      </c>
+      <c r="B184" s="1" t="n"/>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D184" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5809,31 +5753,23 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="inlineStr">
-        <is>
-          <t>2436</t>
-        </is>
-      </c>
+      <c r="B185" s="1" t="n"/>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D185" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D185" s="1" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
-        <v>207</v>
+        <v>498</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5842,31 +5778,31 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>207</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
       <c r="B186" s="1" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>BR-3222</t>
         </is>
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D186" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5875,31 +5811,27 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="inlineStr">
-        <is>
-          <t>2507</t>
-        </is>
-      </c>
+      <c r="B187" s="1" t="n"/>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D187" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5908,23 +5840,23 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
       <c r="B188" s="1" t="n"/>
-      <c r="C188" s="1" t="n"/>
-      <c r="D188" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D188" s="1" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5933,23 +5865,31 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
-      <c r="B189" s="1" t="n"/>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>BRAVO</t>
+        </is>
+      </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D189" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D189" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5958,31 +5898,31 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>358</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="C190" s="1" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D190" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5991,31 +5931,31 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n"/>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>FRANCO</t>
         </is>
       </c>
       <c r="C191" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D191" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -6024,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>299</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192">
@@ -6032,19 +5972,19 @@
       <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D192" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -6053,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193">
@@ -6069,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="F193" t="n">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -6078,14 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>509</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>G-6400</t>
         </is>
       </c>
       <c r="C194" s="1" t="inlineStr">
@@ -6095,49 +6035,53 @@
       </c>
       <c r="D194" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
       <c r="B195" s="1" t="inlineStr">
         <is>
-          <t>7950 jacket</t>
-        </is>
-      </c>
-      <c r="C195" s="1" t="inlineStr"/>
+          <t>G-W/C 632</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D195" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>7XL</t>
         </is>
       </c>
       <c r="E195" t="n">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -6145,89 +6089,97 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
-      <c r="B196" s="1" t="n"/>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>JOSHUA</t>
+        </is>
+      </c>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D196" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E196" t="n">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="n"/>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>KE 007E</t>
+        </is>
+      </c>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D197" s="1" t="inlineStr"/>
+          <t>Antique</t>
+        </is>
+      </c>
+      <c r="D197" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>550</v>
+        <v>412</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
-      <c r="B198" s="1" t="inlineStr">
-        <is>
-          <t>7950-vest</t>
-        </is>
-      </c>
+      <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="D198" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E198" t="n">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="I198" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6235,19 +6187,15 @@
       <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D199" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D199" s="1" t="inlineStr"/>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199" t="n">
-        <v>159</v>
+        <v>825</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -6256,23 +6204,31 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>159</v>
+        <v>825</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
-      <c r="B200" s="1" t="n"/>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>KE 72</t>
+        </is>
+      </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D200" s="1" t="inlineStr"/>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D200" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>318</v>
+        <v>520</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -6281,56 +6237,52 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>318</v>
+        <v>520</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
-      <c r="B201" s="1" t="inlineStr">
-        <is>
-          <t>BIKER 110</t>
-        </is>
-      </c>
+      <c r="B201" s="1" t="n"/>
       <c r="C201" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D201" s="1" t="inlineStr">
         <is>
-          <t>6XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E201" t="n">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>99</v>
+        <v>625</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
       <c r="B202" s="1" t="n"/>
-      <c r="C202" s="1" t="n"/>
-      <c r="D202" s="1" t="inlineStr">
-        <is>
-          <t>7XL</t>
-        </is>
-      </c>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D202" s="1" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F202" t="n">
-        <v>99</v>
+        <v>1145</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -6339,62 +6291,62 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>99</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="n"/>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>KE 98 DUFFEL</t>
+        </is>
+      </c>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D203" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D203" s="1" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>198</v>
+        <v>639</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="I203" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
-      <c r="B204" s="1" t="inlineStr">
-        <is>
-          <t>BIKER 220</t>
-        </is>
-      </c>
-      <c r="C204" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="n"/>
       <c r="D204" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E204" t="n">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>99</v>
+        <v>533</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>99</v>
+        <v>533</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -6402,26 +6354,22 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
-      <c r="B205" s="1" t="inlineStr">
-        <is>
-          <t>BR ROCK 2</t>
-        </is>
-      </c>
+      <c r="B205" s="1" t="n"/>
       <c r="C205" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>tobacco</t>
         </is>
       </c>
       <c r="D205" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>249</v>
+        <v>639</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -6430,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>249</v>
+        <v>639</v>
       </c>
     </row>
     <row r="206">
@@ -6438,65 +6386,65 @@
       <c r="B206" s="1" t="n"/>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
-      <c r="D206" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D206" s="1" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F206" t="n">
-        <v>249</v>
+        <v>1813</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="I206" t="n">
-        <v>249</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="n"/>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>KE-117</t>
+        </is>
+      </c>
       <c r="C207" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D207" s="1" t="inlineStr"/>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D207" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>498</v>
+        <v>649</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="I207" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n"/>
-      <c r="B208" s="1" t="inlineStr">
-        <is>
-          <t>BR-3222</t>
-        </is>
-      </c>
+      <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="D208" s="1" t="inlineStr">
@@ -6508,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>115</v>
+        <v>649</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -6517,27 +6465,23 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>115</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n"/>
       <c r="B209" s="1" t="n"/>
-      <c r="C209" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="C209" s="1" t="n"/>
       <c r="D209" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E209" t="n">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>115</v>
+        <v>649</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -6546,23 +6490,23 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>115</v>
+        <v>649</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n"/>
       <c r="B210" s="1" t="n"/>
-      <c r="C210" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D210" s="1" t="inlineStr"/>
+      <c r="C210" s="1" t="n"/>
+      <c r="D210" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
       <c r="E210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>231</v>
+        <v>540</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -6571,21 +6515,13 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>231</v>
+        <v>540</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n"/>
-      <c r="B211" s="1" t="inlineStr">
-        <is>
-          <t>BRAVO</t>
-        </is>
-      </c>
-      <c r="C211" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B211" s="1" t="n"/>
+      <c r="C211" s="1" t="n"/>
       <c r="D211" s="1" t="inlineStr">
         <is>
           <t>4XL</t>
@@ -6595,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -6604,31 +6540,23 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n"/>
-      <c r="B212" s="1" t="inlineStr">
-        <is>
-          <t>CARTER</t>
-        </is>
-      </c>
+      <c r="B212" s="1" t="n"/>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D212" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D212" s="1" t="inlineStr"/>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F212" t="n">
-        <v>220</v>
+        <v>3028</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -6637,31 +6565,31 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>220</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n"/>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>FRANCO</t>
+          <t>KE-176</t>
         </is>
       </c>
       <c r="C213" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="D213" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -6670,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>139</v>
+        <v>349</v>
       </c>
     </row>
     <row r="214">
@@ -6678,19 +6606,19 @@
       <c r="B214" s="1" t="n"/>
       <c r="C214" s="1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D214" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E214" t="n">
         <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -6699,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215">
@@ -6715,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="F215" t="n">
-        <v>278</v>
+        <v>639</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -6724,14 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>278</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>G-6400</t>
+          <t>LARGO</t>
         </is>
       </c>
       <c r="C216" s="1" t="inlineStr">
@@ -6741,14 +6669,14 @@
       </c>
       <c r="D216" s="1" t="inlineStr">
         <is>
-          <t>5XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F216" t="n">
-        <v>170</v>
+        <v>519</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -6757,64 +6685,48 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>170</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
-      <c r="B217" s="1" t="inlineStr">
-        <is>
-          <t>G-W/C 632</t>
-        </is>
-      </c>
-      <c r="C217" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B217" s="1" t="n"/>
+      <c r="C217" s="1" t="n"/>
       <c r="D217" s="1" t="inlineStr">
         <is>
-          <t>7XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E217" t="n">
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
-      <c r="B218" s="1" t="inlineStr">
-        <is>
-          <t>JOSHUA</t>
-        </is>
-      </c>
+      <c r="B218" s="1" t="n"/>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D218" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D218" s="1" t="inlineStr"/>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F218" t="n">
-        <v>335</v>
+        <v>779</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -6823,85 +6735,89 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>335</v>
+        <v>779</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n"/>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>KE 007E</t>
+          <t>MAXSON</t>
         </is>
       </c>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D219" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E219" t="n">
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I219" t="n">
-        <v>412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
-      <c r="B220" s="1" t="n"/>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>MEN VEST</t>
+        </is>
+      </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D220" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>412</v>
+        <v>220</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
       <c r="B221" s="1" t="n"/>
-      <c r="C221" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D221" s="1" t="inlineStr"/>
+      <c r="C221" s="1" t="n"/>
+      <c r="D221" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>825</v>
+        <v>99</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -6910,31 +6826,23 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>825</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
-      <c r="B222" s="1" t="inlineStr">
-        <is>
-          <t>KE 72</t>
-        </is>
-      </c>
-      <c r="C222" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="B222" s="1" t="n"/>
+      <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222" t="n">
-        <v>520</v>
+        <v>199</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6943,27 +6851,23 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>520</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
       <c r="B223" s="1" t="n"/>
-      <c r="C223" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="C223" s="1" t="n"/>
       <c r="D223" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E223" t="n">
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>625</v>
+        <v>83</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6972,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>625</v>
+        <v>83</v>
       </c>
     </row>
     <row r="224">
@@ -6980,15 +6884,19 @@
       <c r="B224" s="1" t="n"/>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D224" s="1" t="inlineStr"/>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D224" s="1" t="inlineStr">
+        <is>
+          <t>3XL</t>
+        </is>
+      </c>
       <c r="E224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>1145</v>
+        <v>110</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6997,85 +6905,81 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
-      <c r="B225" s="1" t="inlineStr">
-        <is>
-          <t>KE 98 DUFFEL</t>
-        </is>
-      </c>
-      <c r="C225" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B225" s="1" t="n"/>
+      <c r="C225" s="1" t="n"/>
       <c r="D225" s="1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E225" t="n">
         <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>639</v>
+        <v>83</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n"/>
       <c r="B226" s="1" t="n"/>
-      <c r="C226" s="1" t="n"/>
-      <c r="D226" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D226" s="1" t="inlineStr"/>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F226" t="n">
-        <v>533</v>
+        <v>796</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
-      <c r="B227" s="1" t="n"/>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>MINK</t>
+        </is>
+      </c>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>tobacco</t>
+          <t>Oxblood</t>
         </is>
       </c>
       <c r="D227" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E227" t="n">
         <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>639</v>
+        <v>312</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -7084,85 +6988,97 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>639</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
-      <c r="B228" s="1" t="n"/>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>ML2-BLAZER</t>
+        </is>
+      </c>
       <c r="C228" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D228" s="1" t="inlineStr"/>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="D228" s="1" t="inlineStr">
+        <is>
+          <t>3XL</t>
+        </is>
+      </c>
       <c r="E228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>1813</v>
+        <v>169</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>639</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>KE-117</t>
+          <t>NELSON</t>
         </is>
       </c>
       <c r="C229" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="D229" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229" t="n">
-        <v>649</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>649</v>
+        <v>220</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
-      <c r="B230" s="1" t="n"/>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>OWEN</t>
+        </is>
+      </c>
       <c r="C230" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D230" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E230" t="n">
         <v>1</v>
       </c>
       <c r="F230" t="n">
-        <v>649</v>
+        <v>159</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -7171,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>649</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231">
@@ -7180,14 +7096,14 @@
       <c r="C231" s="1" t="n"/>
       <c r="D231" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E231" t="n">
         <v>1</v>
       </c>
       <c r="F231" t="n">
-        <v>649</v>
+        <v>159</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -7196,23 +7112,23 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>649</v>
+        <v>159</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
       <c r="B232" s="1" t="n"/>
-      <c r="C232" s="1" t="n"/>
-      <c r="D232" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D232" s="1" t="inlineStr"/>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F232" t="n">
-        <v>540</v>
+        <v>319</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -7221,23 +7137,27 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>540</v>
+        <v>319</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n"/>
-      <c r="B233" s="1" t="n"/>
-      <c r="C233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>PILOT</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr"/>
       <c r="D233" s="1" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E233" t="n">
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>540</v>
+        <v>159</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -7246,23 +7166,31 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>540</v>
+        <v>159</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
-      <c r="B234" s="1" t="n"/>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>RACER</t>
+        </is>
+      </c>
       <c r="C234" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D234" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D234" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E234" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F234" t="n">
-        <v>3028</v>
+        <v>254</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -7271,31 +7199,23 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>3028</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
-      <c r="B235" s="1" t="inlineStr">
-        <is>
-          <t>KE-176</t>
-        </is>
-      </c>
-      <c r="C235" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="B235" s="1" t="n"/>
+      <c r="C235" s="1" t="n"/>
       <c r="D235" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E235" t="n">
         <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -7304,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>349</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236">
@@ -7312,28 +7232,28 @@
       <c r="B236" s="1" t="n"/>
       <c r="C236" s="1" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Burgandy</t>
         </is>
       </c>
       <c r="D236" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F236" t="n">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I236" t="n">
-        <v>290</v>
+        <v>115</v>
       </c>
     </row>
     <row r="237">
@@ -7346,10 +7266,10 @@
       </c>
       <c r="D237" s="1" t="inlineStr"/>
       <c r="E237" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F237" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -7358,14 +7278,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>LARGO</t>
+          <t>RIKSHAW</t>
         </is>
       </c>
       <c r="C238" s="1" t="inlineStr">
@@ -7382,32 +7302,40 @@
         <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>519</v>
+        <v>174</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I238" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
-      <c r="B239" s="1" t="n"/>
-      <c r="C239" s="1" t="n"/>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>TRAP-RYAN</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
       <c r="D239" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -7416,23 +7344,23 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>259</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n"/>
       <c r="B240" s="1" t="n"/>
-      <c r="C240" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D240" s="1" t="inlineStr"/>
+      <c r="C240" s="1" t="n"/>
+      <c r="D240" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
       <c r="E240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>779</v>
+        <v>360</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -7441,47 +7369,39 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>779</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n"/>
-      <c r="B241" s="1" t="inlineStr">
-        <is>
-          <t>MAXSON</t>
-        </is>
-      </c>
+      <c r="B241" s="1" t="n"/>
       <c r="C241" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D241" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D241" s="1" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F241" t="n">
-        <v>124</v>
+        <v>720</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n"/>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>MEN VEST</t>
+          <t>amj-3</t>
         </is>
       </c>
       <c r="C242" s="1" t="inlineStr">
@@ -7491,14 +7411,14 @@
       </c>
       <c r="D242" s="1" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -7507,13 +7427,21 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n"/>
-      <c r="B243" s="1" t="n"/>
-      <c r="C243" s="1" t="n"/>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>amj-5</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
       <c r="D243" s="1" t="inlineStr">
         <is>
           <t>L</t>
@@ -7523,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -7532,23 +7460,31 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n"/>
-      <c r="B244" s="1" t="n"/>
-      <c r="C244" s="1" t="n"/>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>amj-6</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D244" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -7557,23 +7493,27 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n"/>
       <c r="B245" s="1" t="n"/>
-      <c r="C245" s="1" t="n"/>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>Cognac</t>
+        </is>
+      </c>
       <c r="D245" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E245" t="n">
         <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -7582,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>83</v>
+        <v>220</v>
       </c>
     </row>
     <row r="246">
@@ -7590,19 +7530,15 @@
       <c r="B246" s="1" t="n"/>
       <c r="C246" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="D246" s="1" t="inlineStr">
-        <is>
-          <t>3XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D246" s="1" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F246" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -7611,23 +7547,31 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n"/>
-      <c r="B247" s="1" t="n"/>
-      <c r="C247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>bravo 1</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D247" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -7636,23 +7580,31 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
-      <c r="B248" s="1" t="n"/>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>edison</t>
+        </is>
+      </c>
       <c r="C248" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D248" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D248" s="1" t="inlineStr">
+        <is>
+          <t>2XL</t>
+        </is>
+      </c>
       <c r="E248" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>796</v>
+        <v>249</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -7661,19 +7613,15 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>796</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n"/>
-      <c r="B249" s="1" t="inlineStr">
-        <is>
-          <t>MINK</t>
-        </is>
-      </c>
+      <c r="B249" s="1" t="n"/>
       <c r="C249" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D249" s="1" t="inlineStr">
@@ -7685,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -7694,31 +7642,23 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>312</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n"/>
-      <c r="B250" s="1" t="inlineStr">
-        <is>
-          <t>ML2-BLAZER</t>
-        </is>
-      </c>
+      <c r="B250" s="1" t="n"/>
       <c r="C250" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="D250" s="1" t="inlineStr">
-        <is>
-          <t>3XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D250" s="1" t="inlineStr"/>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F250" t="n">
-        <v>169</v>
+        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -7727,73 +7667,65 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>169</v>
+        <v>498</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n"/>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>NELSON</t>
+          <t>g-108</t>
         </is>
       </c>
       <c r="C251" s="1" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D251" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n"/>
-      <c r="B252" s="1" t="inlineStr">
-        <is>
-          <t>OWEN</t>
-        </is>
-      </c>
-      <c r="C252" s="1" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
+      <c r="B252" s="1" t="n"/>
+      <c r="C252" s="1" t="n"/>
       <c r="D252" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E252" t="n">
         <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I252" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7802,14 +7734,14 @@
       <c r="C253" s="1" t="n"/>
       <c r="D253" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E253" t="n">
         <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -7818,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="254">
@@ -7831,10 +7763,10 @@
       </c>
       <c r="D254" s="1" t="inlineStr"/>
       <c r="E254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F254" t="n">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -7843,48 +7775,48 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>319</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n"/>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>PILOT</t>
-        </is>
-      </c>
-      <c r="C255" s="1" t="inlineStr"/>
+          <t>g-6200</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
       <c r="D255" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E255" t="n">
         <v>1</v>
       </c>
       <c r="F255" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I255" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n"/>
-      <c r="B256" s="1" t="inlineStr">
-        <is>
-          <t>RACER</t>
-        </is>
-      </c>
+      <c r="B256" s="1" t="n"/>
       <c r="C256" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D256" s="1" t="inlineStr">
@@ -7893,10 +7825,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -7905,23 +7837,23 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n"/>
       <c r="B257" s="1" t="n"/>
-      <c r="C257" s="1" t="n"/>
-      <c r="D257" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D257" s="1" t="inlineStr"/>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257" t="n">
-        <v>139</v>
+        <v>378</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -7930,15 +7862,19 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>139</v>
+        <v>378</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n"/>
-      <c r="B258" s="1" t="n"/>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>m callum</t>
+        </is>
+      </c>
       <c r="C258" s="1" t="inlineStr">
         <is>
-          <t>Burgandy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D258" s="1" t="inlineStr">
@@ -7947,101 +7883,93 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n"/>
-      <c r="B259" s="1" t="n"/>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>m-nobel</t>
+        </is>
+      </c>
       <c r="C259" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D259" s="1" t="inlineStr"/>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D259" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E259" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F259" t="n">
-        <v>625</v>
+        <v>254</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I259" t="n">
-        <v>625</v>
+        <v>139</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n"/>
-      <c r="B260" s="1" t="inlineStr">
-        <is>
-          <t>RIKSHAW</t>
-        </is>
-      </c>
-      <c r="C260" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B260" s="1" t="n"/>
+      <c r="C260" s="1" t="n"/>
       <c r="D260" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n"/>
-      <c r="B261" s="1" t="inlineStr">
-        <is>
-          <t>TRAP-RYAN</t>
-        </is>
-      </c>
+      <c r="B261" s="1" t="n"/>
       <c r="C261" s="1" t="inlineStr">
         <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D261" s="1" t="inlineStr">
-        <is>
-          <t>3XL</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D261" s="1" t="inlineStr"/>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F261" t="n">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
@@ -8050,23 +7978,31 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n"/>
-      <c r="B262" s="1" t="n"/>
-      <c r="C262" s="1" t="n"/>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>m2-edward</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
       <c r="D262" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E262" t="n">
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -8075,56 +8011,48 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>360</v>
+        <v>107</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n"/>
       <c r="B263" s="1" t="n"/>
-      <c r="C263" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D263" s="1" t="inlineStr"/>
+      <c r="C263" s="1" t="n"/>
+      <c r="D263" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
       <c r="E263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>720</v>
+        <v>129</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I263" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n"/>
-      <c r="B264" s="1" t="inlineStr">
-        <is>
-          <t>amj-3</t>
-        </is>
-      </c>
+      <c r="B264" s="1" t="n"/>
       <c r="C264" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D264" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D264" s="1" t="inlineStr"/>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F264" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G264" t="n">
         <v>0</v>
@@ -8133,14 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n"/>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>amj-5</t>
+          <t>nello</t>
         </is>
       </c>
       <c r="C265" s="1" t="inlineStr">
@@ -8157,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="F265" t="n">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -8166,14 +8094,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>249</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n"/>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>amj-6</t>
+          <t>oscar bomber</t>
         </is>
       </c>
       <c r="C266" s="1" t="inlineStr">
@@ -8183,14 +8111,14 @@
       </c>
       <c r="D266" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="E266" t="n">
         <v>1</v>
       </c>
       <c r="F266" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
@@ -8199,27 +8127,23 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n"/>
       <c r="B267" s="1" t="n"/>
-      <c r="C267" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
+      <c r="C267" s="1" t="n"/>
       <c r="D267" s="1" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="E267" t="n">
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -8228,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268">
@@ -8244,7 +8168,7 @@
         <v>2</v>
       </c>
       <c r="F268" t="n">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -8253,31 +8177,31 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n"/>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>bravo 1</t>
+          <t>regal</t>
         </is>
       </c>
       <c r="C269" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="D269" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>5XL</t>
         </is>
       </c>
       <c r="E269" t="n">
         <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -8286,31 +8210,27 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n"/>
-      <c r="B270" s="1" t="inlineStr">
-        <is>
-          <t>edison</t>
-        </is>
-      </c>
+      <c r="B270" s="1" t="n"/>
       <c r="C270" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D270" s="1" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E270" t="n">
         <v>1</v>
       </c>
       <c r="F270" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
@@ -8319,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271">
@@ -8327,19 +8247,15 @@
       <c r="B271" s="1" t="n"/>
       <c r="C271" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D271" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D271" s="1" t="inlineStr"/>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F271" t="n">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -8348,23 +8264,31 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n"/>
-      <c r="B272" s="1" t="n"/>
+      <c r="B272" s="1" t="inlineStr">
+        <is>
+          <t>ronai</t>
+        </is>
+      </c>
       <c r="C272" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D272" s="1" t="inlineStr"/>
+          <t>Taupe</t>
+        </is>
+      </c>
+      <c r="D272" s="1" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
       <c r="E272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>498</v>
+        <v>210</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -8373,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>498</v>
+        <v>210</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n"/>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>g-108</t>
+          <t>samo</t>
         </is>
       </c>
       <c r="C273" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D273" s="1" t="inlineStr">
@@ -8397,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -8406,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274">
@@ -8415,39 +8339,39 @@
       <c r="C274" s="1" t="n"/>
       <c r="D274" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E274" t="n">
         <v>1</v>
       </c>
       <c r="F274" t="n">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n"/>
       <c r="B275" s="1" t="n"/>
-      <c r="C275" s="1" t="n"/>
-      <c r="D275" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
+      <c r="C275" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D275" s="1" t="inlineStr"/>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F275" t="n">
-        <v>189</v>
+        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -8456,23 +8380,31 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>189</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n"/>
-      <c r="B276" s="1" t="n"/>
+      <c r="B276" s="1" t="inlineStr">
+        <is>
+          <t>stefan biker</t>
+        </is>
+      </c>
       <c r="C276" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D276" s="1" t="inlineStr"/>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="D276" s="1" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
-        <v>567</v>
+        <v>159</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -8481,19 +8413,19 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>567</v>
+        <v>159</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n"/>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>g-6200</t>
+          <t>super bomber</t>
         </is>
       </c>
       <c r="C277" s="1" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Cognac</t>
         </is>
       </c>
       <c r="D277" s="1" t="inlineStr">
@@ -8505,36 +8437,40 @@
         <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n"/>
-      <c r="B278" s="1" t="n"/>
+      <c r="B278" s="1" t="inlineStr">
+        <is>
+          <t>winner</t>
+        </is>
+      </c>
       <c r="C278" s="1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="D278" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E278" t="n">
         <v>1</v>
       </c>
       <c r="F278" t="n">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -8543,778 +8479,133 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>189</v>
+        <v>115</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n"/>
-      <c r="B279" s="1" t="n"/>
-      <c r="C279" s="1" t="inlineStr">
+      <c r="A279" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="B279" s="1" t="inlineStr"/>
+      <c r="C279" s="1" t="inlineStr"/>
       <c r="D279" s="1" t="inlineStr"/>
       <c r="E279" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="F279" t="n">
-        <v>378</v>
+        <v>28210</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>5164</v>
       </c>
       <c r="I279" t="n">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n"/>
-      <c r="B280" s="1" t="inlineStr">
-        <is>
-          <t>m callum</t>
-        </is>
-      </c>
-      <c r="C280" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D280" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>1</v>
-      </c>
-      <c r="F280" t="n">
-        <v>240</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n"/>
-      <c r="B281" s="1" t="inlineStr">
-        <is>
-          <t>m-nobel</t>
-        </is>
-      </c>
-      <c r="C281" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D281" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>2</v>
-      </c>
-      <c r="F281" t="n">
-        <v>254</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="n">
-        <v>115</v>
-      </c>
-      <c r="I281" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n"/>
-      <c r="B282" s="1" t="n"/>
-      <c r="C282" s="1" t="n"/>
-      <c r="D282" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>139</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n"/>
-      <c r="B283" s="1" t="n"/>
-      <c r="C283" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D283" s="1" t="inlineStr"/>
-      <c r="E283" t="n">
-        <v>3</v>
-      </c>
-      <c r="F283" t="n">
-        <v>393</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n"/>
-      <c r="B284" s="1" t="inlineStr">
-        <is>
-          <t>m2-edward</t>
-        </is>
-      </c>
-      <c r="C284" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D284" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>1</v>
-      </c>
-      <c r="F284" t="n">
-        <v>107</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n"/>
-      <c r="B285" s="1" t="n"/>
-      <c r="C285" s="1" t="n"/>
-      <c r="D285" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>1</v>
-      </c>
-      <c r="F285" t="n">
-        <v>129</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
-      </c>
-      <c r="H285" t="n">
-        <v>129</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n"/>
-      <c r="B286" s="1" t="n"/>
-      <c r="C286" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D286" s="1" t="inlineStr"/>
-      <c r="E286" t="n">
-        <v>2</v>
-      </c>
-      <c r="F286" t="n">
-        <v>236</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n"/>
-      <c r="B287" s="1" t="inlineStr">
-        <is>
-          <t>nello</t>
-        </is>
-      </c>
-      <c r="C287" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D287" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>1</v>
-      </c>
-      <c r="F287" t="n">
-        <v>359</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n"/>
-      <c r="B288" s="1" t="inlineStr">
-        <is>
-          <t>oscar bomber</t>
-        </is>
-      </c>
-      <c r="C288" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D288" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>1</v>
-      </c>
-      <c r="F288" t="n">
-        <v>199</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n"/>
-      <c r="B289" s="1" t="n"/>
-      <c r="C289" s="1" t="n"/>
-      <c r="D289" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>1</v>
-      </c>
-      <c r="F289" t="n">
-        <v>239</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n"/>
-      <c r="B290" s="1" t="n"/>
-      <c r="C290" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D290" s="1" t="inlineStr"/>
-      <c r="E290" t="n">
-        <v>2</v>
-      </c>
-      <c r="F290" t="n">
-        <v>438</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n"/>
-      <c r="B291" s="1" t="inlineStr">
-        <is>
-          <t>regal</t>
-        </is>
-      </c>
-      <c r="C291" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="D291" s="1" t="inlineStr">
-        <is>
-          <t>5XL</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>1</v>
-      </c>
-      <c r="F291" t="n">
-        <v>140</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n"/>
-      <c r="B292" s="1" t="n"/>
-      <c r="C292" s="1" t="inlineStr">
-        <is>
-          <t>Stone</t>
-        </is>
-      </c>
-      <c r="D292" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>1</v>
-      </c>
-      <c r="F292" t="n">
-        <v>149</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n"/>
-      <c r="B293" s="1" t="n"/>
-      <c r="C293" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D293" s="1" t="inlineStr"/>
-      <c r="E293" t="n">
-        <v>2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>289</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n"/>
-      <c r="B294" s="1" t="inlineStr">
-        <is>
-          <t>ronai</t>
-        </is>
-      </c>
-      <c r="C294" s="1" t="inlineStr">
-        <is>
-          <t>Taupe</t>
-        </is>
-      </c>
-      <c r="D294" s="1" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>1</v>
-      </c>
-      <c r="F294" t="n">
-        <v>210</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n"/>
-      <c r="B295" s="1" t="inlineStr">
-        <is>
-          <t>samo</t>
-        </is>
-      </c>
-      <c r="C295" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D295" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>1</v>
-      </c>
-      <c r="F295" t="n">
-        <v>249</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n"/>
-      <c r="B296" s="1" t="n"/>
-      <c r="C296" s="1" t="n"/>
-      <c r="D296" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>1</v>
-      </c>
-      <c r="F296" t="n">
-        <v>299</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n"/>
-      <c r="B297" s="1" t="n"/>
-      <c r="C297" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D297" s="1" t="inlineStr"/>
-      <c r="E297" t="n">
-        <v>2</v>
-      </c>
-      <c r="F297" t="n">
-        <v>548</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n"/>
-      <c r="B298" s="1" t="inlineStr">
-        <is>
-          <t>stefan biker</t>
-        </is>
-      </c>
-      <c r="C298" s="1" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="D298" s="1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>1</v>
-      </c>
-      <c r="F298" t="n">
-        <v>159</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n"/>
-      <c r="B299" s="1" t="inlineStr">
-        <is>
-          <t>super bomber</t>
-        </is>
-      </c>
-      <c r="C299" s="1" t="inlineStr">
-        <is>
-          <t>Cognac</t>
-        </is>
-      </c>
-      <c r="D299" s="1" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>1</v>
-      </c>
-      <c r="F299" t="n">
-        <v>175</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n"/>
-      <c r="B300" s="1" t="inlineStr">
-        <is>
-          <t>winner</t>
-        </is>
-      </c>
-      <c r="C300" s="1" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="D300" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>1</v>
-      </c>
-      <c r="F300" t="n">
-        <v>115</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B301" s="1" t="inlineStr"/>
-      <c r="C301" s="1" t="inlineStr"/>
-      <c r="D301" s="1" t="inlineStr"/>
-      <c r="E301" t="n">
-        <v>133</v>
-      </c>
-      <c r="F301" t="n">
-        <v>28210</v>
-      </c>
-      <c r="G301" t="n">
-        <v>23</v>
-      </c>
-      <c r="H301" t="n">
-        <v>5164</v>
-      </c>
-      <c r="I301" t="n">
         <v>23046</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="C225:C226"/>
+  <mergeCells count="98">
+    <mergeCell ref="C234:C235"/>
     <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C252:C253"/>
     <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C137:C140"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B281:B283"/>
     <mergeCell ref="B213:B215"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="B165:B167"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="A137:A278"/>
     <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C262:C263"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="B176:B178"/>
     <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B259:B261"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B191:B193"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="B269:B271"/>
     <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B197:B199"/>
     <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="A2:A157"/>
     <mergeCell ref="B80:B86"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B225:B228"/>
     <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C203:C204"/>
     <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B203:B206"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="C129:C132"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C251:C253"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="B220:B226"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B230:B232"/>
     <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A159:A300"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C141:C144"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C284:C285"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B255:B257"/>
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C273:C274"/>
     <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="B277:B279"/>
     <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B295:B297"/>
     <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="B251:B254"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B262:B264"/>
     <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="B256:B259"/>
-    <mergeCell ref="B159:B171"/>
-    <mergeCell ref="B141:B144"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C259:C260"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B216:B218"/>
     <mergeCell ref="B266:B268"/>
-    <mergeCell ref="B229:B234"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="A2:A135"/>
+    <mergeCell ref="B137:B149"/>
+    <mergeCell ref="B150:B156"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C165:C166"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C159:C162"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B242:B248"/>
     <mergeCell ref="B44:B55"/>
-    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B239:B241"/>
     <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C273:C275"/>
+    <mergeCell ref="C266:C267"/>
     <mergeCell ref="C92:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Leather Company - Jan 2024 - Leather Jackets.xlsx
+++ b/Leather Company - Jan 2024 - Leather Jackets.xlsx
@@ -3997,13 +3997,13 @@
         <v>169</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>169</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4391,13 +4391,13 @@
         <v>29871</v>
       </c>
       <c r="G136" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136" t="n">
-        <v>9892</v>
+        <v>9723</v>
       </c>
       <c r="I136" t="n">
-        <v>19978</v>
+        <v>20147</v>
       </c>
     </row>
     <row r="137">
